--- a/input/data/Sample Data_V1 (1).xlsx
+++ b/input/data/Sample Data_V1 (1).xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
-  <workbookPr defaultThemeVersion="202300"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/8b2c20da00463e3b/Desktop/PE-Realtors/Website-PE-Realtors/.com/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\xampp\htdocs\xampp\MARS\pe_realtors\input\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="190" documentId="8_{CAC37B97-E7D1-4887-B5F9-F163C86FE7F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4B8CD069-EA26-4AAD-8EE4-C7C9C99EBE47}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E4EE4C3-FA13-436E-8C1F-8F530AEDBA41}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Fields and List of Values" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Fields and List of Values'!$A$1:$Z$12</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="88">
   <si>
     <t>Property ID</t>
   </si>
@@ -74,9 +66,6 @@
     <t>New Projects</t>
   </si>
   <si>
-    <t>Residential Type</t>
-  </si>
-  <si>
     <t>Flat</t>
   </si>
   <si>
@@ -135,9 +124,6 @@
   </si>
   <si>
     <t>Premium Apartment - All Amenities</t>
-  </si>
-  <si>
-    <t>Commercial Property Type</t>
   </si>
   <si>
     <t>Commercial Space for office Purpose (Furnished)</t>
@@ -397,12 +383,57 @@
   <si>
     <t>In Guntas</t>
   </si>
+  <si>
+    <t>Ref. No.</t>
+  </si>
+  <si>
+    <t>DD</t>
+  </si>
+  <si>
+    <t>TB</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Negotiable</t>
+  </si>
+  <si>
+    <t>Not Mandatory</t>
+  </si>
+  <si>
+    <t>Auto</t>
+  </si>
+  <si>
+    <t>NM</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Property Title</t>
+  </si>
+  <si>
+    <t>Youtube Link</t>
+  </si>
+  <si>
+    <t>Give provision to decide which property should come on home page</t>
+  </si>
+  <si>
+    <t>Give provision to decide which property should come on home page with position</t>
+  </si>
+  <si>
+    <t>Show always properties based on added on desc order</t>
+  </si>
+  <si>
+    <t>Property Sub Type</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -824,585 +855,833 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28CE9CB2-5A60-40DE-8600-2E8C4264FEF1}">
-  <dimension ref="A1:U12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="11.85546875" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
+    <col min="1" max="1" width="11.875" customWidth="1"/>
+    <col min="2" max="2" width="12.875" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.5703125" customWidth="1"/>
-    <col min="6" max="6" width="62.42578125" customWidth="1"/>
-    <col min="7" max="7" width="41.140625" customWidth="1"/>
-    <col min="8" max="8" width="25.85546875" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="13.7109375" customWidth="1"/>
-    <col min="12" max="12" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="3" customWidth="1"/>
-    <col min="16" max="16" width="32.28515625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="21" style="3" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="21.28515625" style="3" customWidth="1"/>
-    <col min="19" max="19" width="37.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="47.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="8" width="24.5" customWidth="1"/>
+    <col min="9" max="9" width="62.5" customWidth="1"/>
+    <col min="10" max="10" width="41.125" customWidth="1"/>
+    <col min="11" max="11" width="25.875" customWidth="1"/>
+    <col min="12" max="12" width="9.25" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="14" max="14" width="13.75" customWidth="1"/>
+    <col min="15" max="15" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.75" style="3" customWidth="1"/>
+    <col min="19" max="19" width="32.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="21" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="21.25" style="3" customWidth="1"/>
+    <col min="24" max="24" width="37.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="47.25" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="17.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:26" ht="30">
       <c r="A1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="C1" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q1" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="R1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="X1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:26" s="4" customFormat="1" ht="44.25">
+      <c r="A2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J2" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="7">
+        <v>1450</v>
+      </c>
+      <c r="Q2" s="7"/>
+      <c r="R2" s="7"/>
+      <c r="T2" s="7">
+        <v>25000</v>
+      </c>
+      <c r="U2" s="7"/>
+      <c r="V2" s="7"/>
+      <c r="W2" s="7"/>
+      <c r="X2" s="7"/>
+      <c r="Z2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" s="4" customFormat="1" ht="44.25">
+      <c r="A3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="N1" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="O1" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="P1" s="1" t="s">
+      <c r="L3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="7">
+        <v>1520</v>
+      </c>
+      <c r="Q3" s="7"/>
+      <c r="R3" s="7"/>
+      <c r="S3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="Q1" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="U1" s="1" t="s">
+      <c r="T3" s="7">
+        <v>35000</v>
+      </c>
+      <c r="U3" s="7"/>
+      <c r="V3" s="7"/>
+      <c r="W3" s="7"/>
+      <c r="X3" s="7"/>
+      <c r="Z3" s="4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C2" s="4" t="s">
+    <row r="4" spans="1:26" s="4" customFormat="1" ht="44.25">
+      <c r="A4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E4" s="5"/>
+      <c r="F4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="I4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P4" s="7">
+        <v>1300</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="T4" s="7">
+        <v>42000</v>
+      </c>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Z4" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" s="4" customFormat="1" ht="43.5" hidden="1">
+      <c r="A5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="5"/>
+      <c r="F5" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="P5" s="7">
+        <v>1300</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="7"/>
+      <c r="S5" t="s">
+        <v>31</v>
+      </c>
+      <c r="T5" s="7"/>
+      <c r="U5" s="7">
+        <v>4200000</v>
+      </c>
+      <c r="V5" s="7"/>
+      <c r="W5" s="7"/>
+      <c r="X5" s="7"/>
+      <c r="Z5" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" s="4" customFormat="1" ht="43.5" hidden="1">
+      <c r="A6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="I6" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="7">
-        <v>1450</v>
-      </c>
-      <c r="N2" s="7"/>
-      <c r="O2" s="7"/>
-      <c r="Q2" s="7">
-        <v>25000</v>
-      </c>
-      <c r="R2" s="7"/>
-      <c r="S2" s="7"/>
-      <c r="U2" s="4" t="s">
+      <c r="J6" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1200</v>
+      </c>
+      <c r="P6" s="7">
+        <v>1300</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="7"/>
+      <c r="T6" s="7"/>
+      <c r="U6" s="7">
+        <v>12000000</v>
+      </c>
+      <c r="V6" s="7"/>
+      <c r="W6" s="7"/>
+      <c r="X6" s="7"/>
+      <c r="Z6" s="4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="4" t="s">
+    <row r="7" spans="1:26" s="4" customFormat="1" ht="43.5" hidden="1">
+      <c r="A7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="K3" s="4" t="s">
+      <c r="D7" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="8"/>
+      <c r="M7" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="M3" s="7">
-        <v>1520</v>
-      </c>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-      <c r="P3" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>35000</v>
-      </c>
-      <c r="R3" s="7"/>
-      <c r="S3" s="7"/>
-      <c r="U3" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="I4" s="8" t="s">
+      <c r="O7" s="4">
+        <v>1200</v>
+      </c>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="T7" s="7"/>
+      <c r="U7" s="7">
+        <v>1000000</v>
+      </c>
+      <c r="V7" s="7"/>
+      <c r="W7" s="7"/>
+      <c r="X7" s="7"/>
+      <c r="Z7" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="4" customFormat="1" ht="28.5" hidden="1">
+      <c r="A8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K4" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M4" s="7">
-        <v>1300</v>
-      </c>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="Q4" s="7">
-        <v>42000</v>
-      </c>
-      <c r="R4" s="7"/>
-      <c r="S4" s="7"/>
-      <c r="U4" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
+      <c r="B8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I8" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1300</v>
-      </c>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7">
-        <v>4200000</v>
-      </c>
-      <c r="S5" s="7"/>
-      <c r="U5" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L6" s="4">
-        <v>1200</v>
-      </c>
-      <c r="M6" s="7">
-        <v>1300</v>
-      </c>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7">
-        <v>12000000</v>
-      </c>
-      <c r="S6" s="7"/>
-      <c r="U6" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" s="4" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I7" s="8"/>
-      <c r="J7" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L7" s="4">
-        <v>1200</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7">
-        <v>1000000</v>
-      </c>
-      <c r="S7" s="7"/>
-      <c r="U7" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I8" s="8"/>
-      <c r="K8" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L8" s="4">
+      <c r="J8" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="8"/>
+      <c r="N8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="O8" s="4">
         <v>4000</v>
       </c>
-      <c r="M8" s="7">
+      <c r="P8" s="7">
         <v>1150</v>
       </c>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="7">
+      <c r="T8" s="7"/>
+      <c r="U8" s="7"/>
+      <c r="V8" s="7"/>
+      <c r="W8" s="7"/>
+      <c r="X8" s="7">
         <v>95000</v>
       </c>
-      <c r="T8" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y8" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" s="4" customFormat="1" ht="28.5" hidden="1">
       <c r="A9" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E9" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="8"/>
-      <c r="J9" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="4">
+      <c r="I9" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="J9" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="8"/>
+      <c r="M9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="O9" s="4">
         <v>4000</v>
       </c>
-      <c r="M9" s="7">
+      <c r="P9" s="7">
         <v>1150</v>
       </c>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="7">
+      <c r="T9" s="7"/>
+      <c r="U9" s="7"/>
+      <c r="V9" s="7"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="7">
         <v>95000</v>
       </c>
-      <c r="T9" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" s="4" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" s="4" customFormat="1" ht="28.5" hidden="1">
       <c r="A10" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="E10" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="8"/>
-      <c r="J10" s="4" t="s">
+      <c r="I10" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="8"/>
+      <c r="M10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="K10" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="L10" s="4">
+      <c r="O10" s="4">
         <v>4000</v>
       </c>
-      <c r="M10" s="7">
+      <c r="P10" s="7">
         <v>1150</v>
       </c>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="7">
+      <c r="T10" s="7"/>
+      <c r="U10" s="7"/>
+      <c r="V10" s="7"/>
+      <c r="W10" s="7"/>
+      <c r="X10" s="7">
         <v>95000</v>
       </c>
-      <c r="T10" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="U10" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+      <c r="Y10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z10" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" hidden="1">
       <c r="A11" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="E11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="3">
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q11" s="3">
         <v>1.5</v>
       </c>
-      <c r="O11" s="3">
+      <c r="R11" s="3">
         <v>45</v>
       </c>
     </row>
-    <row r="12" spans="1:21" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" hidden="1">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E12" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="R12" s="3">
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="J12" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="3">
         <v>10500000</v>
       </c>
     </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" t="s">
+        <v>79</v>
+      </c>
+      <c r="E14" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14" t="s">
+        <v>75</v>
+      </c>
+      <c r="H14" t="s">
+        <v>75</v>
+      </c>
+      <c r="I14" t="s">
+        <v>75</v>
+      </c>
+      <c r="J14" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" t="s">
+        <v>74</v>
+      </c>
+      <c r="L14" t="s">
+        <v>74</v>
+      </c>
+      <c r="M14" t="s">
+        <v>74</v>
+      </c>
+      <c r="N14" t="s">
+        <v>74</v>
+      </c>
+      <c r="O14" t="s">
+        <v>75</v>
+      </c>
+      <c r="P14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="R14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="U14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="V14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="X14" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s">
+        <v>81</v>
+      </c>
+      <c r="E15" t="s">
+        <v>80</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="K15" t="s">
+        <v>81</v>
+      </c>
+      <c r="L15" t="s">
+        <v>81</v>
+      </c>
+      <c r="M15" t="s">
+        <v>81</v>
+      </c>
+      <c r="N15" t="s">
+        <v>81</v>
+      </c>
+      <c r="O15" t="s">
+        <v>81</v>
+      </c>
+      <c r="P15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="R15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="S15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="U15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="W15" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:Z12">
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Rent_Residential"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://d6f000002rtfeuak.my.salesforce.com/a04OX000001R7eL" xr:uid="{A47C3686-664D-4E0E-959C-F34AABC3892A}"/>
-    <hyperlink ref="D3:D12" r:id="rId2" display="https://d6f000002rtfeuak.my.salesforce.com/a04OX000001R7eL" xr:uid="{7ECF93BD-5E5F-47E8-84B4-96EE3321F362}"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://d6f000002rtfeuak.my.salesforce.com/a04OX000001R7eL"/>
+    <hyperlink ref="D3:D12" r:id="rId2" display="https://d6f000002rtfeuak.my.salesforce.com/a04OX000001R7eL"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="55.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>